--- a/Statistics/S8_L47/3.14.Confidence-intervals.Two-means.Independent-samples-Part-1-exercise.xlsx
+++ b/Statistics/S8_L47/3.14.Confidence-intervals.Two-means.Independent-samples-Part-1-exercise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73081F44-9530-4D3E-9341-E423F266C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI, indep, var kwn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Engineering</t>
   </si>
@@ -64,12 +65,21 @@
   </si>
   <si>
     <t>Compare it to the 95% confidence interval from the lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T stat </t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -162,16 +172,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,45 +458,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -502,7 +508,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,16 +518,16 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>0</v>
@@ -532,12 +538,9 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,12 +553,20 @@
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -569,12 +580,19 @@
         <f>C11-D11</f>
         <v>-7</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="2">
+        <f>E11-E12*I10</f>
+        <v>-10.005609042155303</v>
+      </c>
+      <c r="L11" s="2">
+        <f>E11+E12*I10</f>
+        <v>-3.9943909578446974</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -588,23 +606,15 @@
         <f>SQRT((C12*C12/C10+D12*D12/D10))</f>
         <v>1.1649647450214351</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="G12" s="13"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:14" ht="12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
